--- a/excel-to-mysql/template.xlsx
+++ b/excel-to-mysql/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Öğrenci No</t>
   </si>
@@ -29,22 +29,43 @@
     <t>Akademik Yıl</t>
   </si>
   <si>
+    <t>Bölüm</t>
+  </si>
+  <si>
+    <t>Sınıf Durumu</t>
+  </si>
+  <si>
     <t>Ahmet</t>
   </si>
   <si>
     <t>Yılmaz</t>
   </si>
   <si>
+    <t>Bilgisayar Programcılığı</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
     <t>Ayşe</t>
   </si>
   <si>
     <t>Demir</t>
   </si>
   <si>
+    <t>Elektronik Teknolojisi</t>
+  </si>
+  <si>
     <t>Mehmet</t>
   </si>
   <si>
     <t>Kaya</t>
+  </si>
+  <si>
+    <t>Makine Teknolojisi</t>
+  </si>
+  <si>
+    <t>2. Sınıf</t>
   </si>
 </sst>
 </file>
@@ -67,7 +88,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
@@ -420,10 +441,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,10 +452,12 @@
     <col min="1" max="1" width="15" customWidth="true" style="0"/>
     <col min="2" max="2" width="15" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="25">
+    <row r="1" spans="1:6" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,53 +470,78 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" customHeight="1" ht="20">
       <c r="A2" s="2">
         <v>2024001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>2024</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" customHeight="1" ht="20">
       <c r="A3" s="2">
         <v>2024002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>2024</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" customHeight="1" ht="20">
       <c r="A4" s="2">
         <v>2024003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>2024</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
+    <row r="5" spans="1:6" customHeight="1" ht="20"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
